--- a/fondostodos.xlsx
+++ b/fondostodos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G607"/>
+  <dimension ref="A1:G610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8567195</v>
+        <v>8056753</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2080803459</v>
+        <v>2075302348</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3449628728</v>
+        <v>3524206948</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>24064040</v>
+        <v>21317975</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>165718510</v>
+        <v>149341197</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>43389894</v>
+        <v>46196134</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>272869873</v>
+        <v>259640448</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8315206</v>
+        <v>10774089</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8470233689</v>
+        <v>7409019972</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>133768029</v>
+        <v>135880648</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>532337628</v>
+        <v>564156333</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>788405915</v>
+        <v>793393134</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>357366217</v>
+        <v>342658578</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3931275781</v>
+        <v>3882142918</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2151707172</v>
+        <v>2180193394</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2127849100</v>
+        <v>2137572209</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8392018</v>
+        <v>10183261</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>21143840</v>
+        <v>21874080</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>17943144</v>
+        <v>17792108</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>20380547</v>
+        <v>20638676</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>36408203</v>
+        <v>37091191</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1034610946</v>
+        <v>962948759</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8315988369</v>
+        <v>8548480982</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7856746461</v>
+        <v>7711074863</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>589905579</v>
+        <v>556029936</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5963874389</v>
+        <v>5907530081</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3109054505</v>
+        <v>3117128874</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>34872022324</v>
+        <v>36867455229</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>37294368318</v>
+        <v>37840753783</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>292401473</v>
+        <v>273801357</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>444752585</v>
+        <v>442271769</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>176670161</v>
+        <v>166148408</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2975106248</v>
+        <v>2869696247</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4224307481</v>
+        <v>4348239715</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>276905940</v>
+        <v>273140768</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5146439084</v>
+        <v>5720570645</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>831333514</v>
+        <v>828085076</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>983272099</v>
+        <v>945119394</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>183061458</v>
+        <v>187476209</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3827336152</v>
+        <v>3800485068</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6113520</v>
+        <v>5544535</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2397724054</v>
+        <v>2373178336</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>633292119</v>
+        <v>607766611</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>543964335</v>
+        <v>550679659</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1928030</v>
+        <v>1932353</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>314498002</v>
+        <v>308595272</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1115467</v>
+        <v>1119691</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>17539583697</v>
+        <v>16847956745</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1125921951</v>
+        <v>1162199730</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>9091428660</v>
+        <v>9642562260</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>523921200</v>
+        <v>327337207</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>650464498</v>
+        <v>677952921</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>223555630</v>
+        <v>209355961</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>346636542</v>
+        <v>401125164</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>381025542</v>
+        <v>386465993</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>414863326</v>
+        <v>422389871</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>70730040</v>
+        <v>72701899</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>141007268</v>
+        <v>139543282</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>374682489</v>
+        <v>371392371</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1760647994</v>
+        <v>1676639909</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2265287245</v>
+        <v>2237455587</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>541765218</v>
+        <v>524827484</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2149365263</v>
+        <v>2144112205</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>844745082</v>
+        <v>860800287</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>22255225</v>
+        <v>22210978</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>555397383</v>
+        <v>564430165</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1409893058</v>
+        <v>1441786211</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1575395352</v>
+        <v>1589983540</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1978526080</v>
+        <v>1977077084</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>735816599</v>
+        <v>738708208</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1023644516</v>
+        <v>1034005577</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>906079156</v>
+        <v>931583172</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>898861043</v>
+        <v>945517729</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>599515300</v>
+        <v>599908788</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>411673573</v>
+        <v>411499906</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2390073641</v>
+        <v>2429309998</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>525120535</v>
+        <v>554545196</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>144545534</v>
+        <v>152181722</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>191966589</v>
+        <v>218544100</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>393769586</v>
+        <v>444201560</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>27235143568</v>
+        <v>26851209266</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>765561</v>
+        <v>749544</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1608509850</v>
+        <v>1730272396</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>97969013</v>
+        <v>109856301</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>696895892</v>
+        <v>676547777</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>495993742</v>
+        <v>458023317</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>609095589</v>
+        <v>607484519</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>166931392</v>
+        <v>166911913</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>22840783756</v>
+        <v>23410779731</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>68773250357</v>
+        <v>67697486531</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>230098517</v>
+        <v>233183209</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4250518131</v>
+        <v>4229961972</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>12571592741</v>
+        <v>12017511814</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>480876981</v>
+        <v>482068029</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>7552270587</v>
+        <v>7435768588</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2020047015</v>
+        <v>1947008047</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>676615704</v>
+        <v>658839841</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1694880928</v>
+        <v>1698394104</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3011602204</v>
+        <v>3082164701</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2366158786</v>
+        <v>2207657307</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>937817488</v>
+        <v>794858337</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>482646141</v>
+        <v>564663742</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>70282686</v>
+        <v>70834552</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>18689249644</v>
+        <v>18760821248</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>18502529126</v>
+        <v>19158498968</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10186855934</v>
+        <v>10257248217</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2347615852</v>
+        <v>2355583826</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2586898025</v>
+        <v>2713041731</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20583000041</v>
+        <v>20301803373</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>684343761</v>
+        <v>997693181</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2022792954</v>
+        <v>2017081051</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>88972093905</v>
+        <v>90835011899</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>15949175284</v>
+        <v>16231268909</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>162016270671</v>
+        <v>163615011751</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>7527168633</v>
+        <v>7652209105</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1700226307</v>
+        <v>1693487351</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1819351495</v>
+        <v>1858332953</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1053756376</v>
+        <v>1032914916</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3214281047</v>
+        <v>3402976408</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2791761794</v>
+        <v>2710178291</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>813830293</v>
+        <v>814092261</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>27980375606</v>
+        <v>27897830298</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3369783449</v>
+        <v>3671133327</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>12316788075</v>
+        <v>12668357710</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1438702812</v>
+        <v>1382682674</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3482296</v>
+        <v>3534541</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>982442885</v>
+        <v>955698423</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>8000760854</v>
+        <v>7999643942</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>401461345</v>
+        <v>801380768</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>159645489</v>
+        <v>189512197</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>5196132493</v>
+        <v>5329058961</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>28744313298</v>
+        <v>28687479255</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4547806073</v>
+        <v>4568132210</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>4469723649</v>
+        <v>4498601737</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1496875730</v>
+        <v>1516898569</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>11734250</v>
+        <v>12002907</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2115214999</v>
+        <v>2069325293</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>429333958</v>
+        <v>431228725</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2152394261</v>
+        <v>2096823635</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>4939798273</v>
+        <v>4956099699</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>16218955059</v>
+        <v>16113147420</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>13110086134</v>
+        <v>12962780418</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>5210130522</v>
+        <v>5140319817</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3213720121</v>
+        <v>3278869415</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>76937886604</v>
+        <v>77403077902</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1252977710</v>
+        <v>1231580773</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1453871058</v>
+        <v>1447248626</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>32258059886</v>
+        <v>32466208140</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4027787164</v>
+        <v>4258145971</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>5733336896</v>
+        <v>5734274745</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>14874436707</v>
+        <v>15352568081</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2071761960</v>
+        <v>2196900776</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>185333789446</v>
+        <v>188011661764</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>605325956</v>
+        <v>608556511</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>8218317593</v>
+        <v>8246426454</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>2997214809</v>
+        <v>3092913875</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>19200986256</v>
+        <v>19723145831</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>3140129959</v>
+        <v>3091050829</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>3111557485</v>
+        <v>3095806241</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>7840065381</v>
+        <v>7977876858</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>9947929923</v>
+        <v>11000915276</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>188927212</v>
+        <v>210104779</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>107247872</v>
+        <v>110670584</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>4762274939</v>
+        <v>4751443118</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>6314034222</v>
+        <v>6065950372</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>645201145</v>
+        <v>624983198</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3975411449</v>
+        <v>3928997353</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>688670069</v>
+        <v>652657814</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>981215350</v>
+        <v>960958176</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>3077119225</v>
+        <v>3098291812</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2042813026</v>
+        <v>2032297650</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>6408407384</v>
+        <v>6653078090</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>3807477105</v>
+        <v>3330101450</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>254762193</v>
+        <v>275059559</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>112898654</v>
+        <v>110043418</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>447239139</v>
+        <v>450041453</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>434929002</v>
+        <v>437653757</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>188370670</v>
+        <v>187491966</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>50380196</v>
+        <v>50778982</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1905594468</v>
+        <v>1999830941</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>12444252</v>
+        <v>12496851</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>366328333</v>
+        <v>357708091</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>11168037548</v>
+        <v>11270459990</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>263077144</v>
+        <v>260764516</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>3251690320</v>
+        <v>3422585900</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>454640595</v>
+        <v>440814786</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>37787122</v>
+        <v>38683041</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>34926528</v>
+        <v>36478266</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>413874705</v>
+        <v>428878371</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>162345798</v>
+        <v>169845127</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>694131127</v>
+        <v>676458165</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>20545031723</v>
+        <v>20157532209</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1308130133</v>
+        <v>1367587858</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3947531265</v>
+        <v>4072193587</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>5714724120</v>
+        <v>5669420810</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>789105494</v>
+        <v>763013909</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>296449383</v>
+        <v>297589333</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>103348839</v>
+        <v>96853583</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>760098474</v>
+        <v>759306838</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>278862356</v>
+        <v>302053066</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1025343683</v>
+        <v>1060216650</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>309975904</v>
+        <v>313416820</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>942305513</v>
+        <v>919932796</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>341372213</v>
+        <v>375357329</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>628585623</v>
+        <v>633371602</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1946361545</v>
+        <v>2011852548</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1100454181</v>
+        <v>1135667542</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>333907084</v>
+        <v>267682697</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1883576693</v>
+        <v>1983034669</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>17695354</v>
+        <v>17882166</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>71562201</v>
+        <v>59621239</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>40981308</v>
+        <v>42032393</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1169774</v>
+        <v>1175259</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>207278224</v>
+        <v>191693612</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>38689415</v>
+        <v>38930948</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>17455046</v>
+        <v>20414896</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>3536442571</v>
+        <v>3462124410</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>337409552</v>
+        <v>349828939</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>784112950</v>
+        <v>909482312</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>8938742177</v>
+        <v>9216374254</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>11438226633</v>
+        <v>11381435269</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>34150920315</v>
+        <v>34454728719</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>6999863615</v>
+        <v>7406965241</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>166081622</v>
+        <v>166951467</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -8333,11 +8333,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>LARGO PLAZO</t>
+          <t>MEDIANO PLAZO</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>16351604</v>
+        <v>12731697</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>141957426</v>
+        <v>138411164</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>894935213</v>
+        <v>981122104</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>5420077944</v>
+        <v>5452830584</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>6832829702</v>
+        <v>6867441069</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1607683970</v>
+        <v>1619138418</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1015307016</v>
+        <v>1093721519</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1149171243</v>
+        <v>1146711371</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>1668703038</v>
+        <v>1670571726</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>7766154533</v>
+        <v>7624066382</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>2214856821</v>
+        <v>2165794129</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>15702115511</v>
+        <v>16346981885</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>921665257</v>
+        <v>927711427</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>340036705</v>
+        <v>340985343</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>63056571</v>
+        <v>65513037</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>8740127652</v>
+        <v>8730967179</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>93699736</v>
+        <v>91844146</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>888638931</v>
+        <v>841267050</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>295061711</v>
+        <v>293579611</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>278000458</v>
+        <v>277628631</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>2082586215</v>
+        <v>1919732562</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>5371128114</v>
+        <v>5593067949</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>3814616147</v>
+        <v>3787226573</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>25516003</v>
+        <v>24665883</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>2439102965</v>
+        <v>2519418418</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>1509736720</v>
+        <v>1516517800</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>4209095919</v>
+        <v>4217329029</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>3135866422</v>
+        <v>3172363721</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>7608749</v>
+        <v>7598029</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>3805675556</v>
+        <v>3443504741</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>449094724</v>
+        <v>427763431</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>325241347</v>
+        <v>313474692</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>5111888096</v>
+        <v>4894915982</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>21878090</v>
+        <v>21352637</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>56965425</v>
+        <v>56792173</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>1744998762</v>
+        <v>1727541225</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>2102878877</v>
+        <v>2172259116</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>737673558</v>
+        <v>733676565</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>868270970</v>
+        <v>905241687</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>793269798</v>
+        <v>818643351</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>2432781427</v>
+        <v>2389907075</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1869100456</v>
+        <v>1858698977</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>934239728</v>
+        <v>954325000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>5939958408</v>
+        <v>5815271195</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>15479913791</v>
+        <v>15397169469</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>25284836892</v>
+        <v>25916003858</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>8472361273</v>
+        <v>8653490396</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>6689776704</v>
+        <v>6767388717</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>46299207</v>
+        <v>58505476</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>106178476</v>
+        <v>107291992</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>627742055</v>
+        <v>627483840</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>2018896428</v>
+        <v>2033465299</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         </is>
       </c>
       <c r="F278" t="n">
-        <v>1675093206</v>
+        <v>1681342261</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>216447695</v>
+        <v>219058164</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>66809715360</v>
+        <v>68133670332</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>9848741178</v>
+        <v>9952381148</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>4033122790</v>
+        <v>4412748193</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>2436906187</v>
+        <v>2796103328</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>1155904702</v>
+        <v>1263805556</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>225747733</v>
+        <v>248486660</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>15583984054</v>
+        <v>15242667932</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>650340330</v>
+        <v>761779474</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>7610650218</v>
+        <v>7149840437</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>5143226654</v>
+        <v>5833260736</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>1892001470</v>
+        <v>1731493936</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>1604290069</v>
+        <v>1622960525</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>3613534109</v>
+        <v>3431782276</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>5052737390</v>
+        <v>5612688741</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>1520934562</v>
+        <v>1598048138</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>2190210390</v>
+        <v>2686149816</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>644039351</v>
+        <v>627533330</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         </is>
       </c>
       <c r="F297" t="n">
-        <v>1179700451</v>
+        <v>1172100042</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>1126702402</v>
+        <v>1173107499</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         </is>
       </c>
       <c r="F299" t="n">
-        <v>1674964221</v>
+        <v>1657003060</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>593663205</v>
+        <v>586684563</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>40363724900</v>
+        <v>40311129288</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>60150040</v>
+        <v>83776084</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>9343646738</v>
+        <v>9450929683</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>5490990798</v>
+        <v>18888706827</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>19868686455</v>
+        <v>20358776839</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>309397652</v>
+        <v>301677322</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>22879765009</v>
+        <v>22903860585</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>14335774523</v>
+        <v>14229081966</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>1358884919</v>
+        <v>1197608882</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>889851025</v>
+        <v>755696202</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>4118577475</v>
+        <v>4588846101</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>348682028</v>
+        <v>496510848</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>518060197</v>
+        <v>572735767</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         </is>
       </c>
       <c r="F314" t="n">
-        <v>12625051660</v>
+        <v>13081855691</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>577969325</v>
+        <v>604032835</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>183295285</v>
+        <v>155995335</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>1689187630</v>
+        <v>1740264549</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>123926514</v>
+        <v>119291133</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>1047649394</v>
+        <v>1066643302</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         </is>
       </c>
       <c r="F320" t="n">
-        <v>40525480</v>
+        <v>40132568</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>631918755</v>
+        <v>643593232</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>4550465395</v>
+        <v>3965344956</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         </is>
       </c>
       <c r="F323" t="n">
-        <v>1951939037</v>
+        <v>1905178438</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="F324" t="n">
-        <v>1786172676</v>
+        <v>1810826982</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>1452848</v>
+        <v>1458725</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         </is>
       </c>
       <c r="F326" t="n">
-        <v>34835029</v>
+        <v>48292174</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>4552206</v>
+        <v>4128807</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>2337449342</v>
+        <v>1954537743</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>10921989759</v>
+        <v>11819489700</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>63376187</v>
+        <v>62918464</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>25196342</v>
+        <v>25261144</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>58109167</v>
+        <v>58718322</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>7450191187</v>
+        <v>8603568051</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>278771708</v>
+        <v>279574609</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>753909324</v>
+        <v>747761556</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>809832718</v>
+        <v>827603237</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>475418589</v>
+        <v>510993740</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>2249826614</v>
+        <v>2419839252</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>730796791</v>
+        <v>810855309</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="F340" t="n">
-        <v>19046206</v>
+        <v>19094932</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="F341" t="n">
-        <v>90560350</v>
+        <v>89113948</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         </is>
       </c>
       <c r="F342" t="n">
-        <v>1695894903</v>
+        <v>1162604249</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>2218591125</v>
+        <v>2194329053</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         </is>
       </c>
       <c r="F344" t="n">
-        <v>1086986454</v>
+        <v>1097454481</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         </is>
       </c>
       <c r="F345" t="n">
-        <v>3473534072</v>
+        <v>3526053094</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         </is>
       </c>
       <c r="F346" t="n">
-        <v>751349094</v>
+        <v>724569283</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="F347" t="n">
-        <v>5763573</v>
+        <v>5717690</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         </is>
       </c>
       <c r="F348" t="n">
-        <v>139709002</v>
+        <v>138651109</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="F349" t="n">
-        <v>3662019157</v>
+        <v>3667530987</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         </is>
       </c>
       <c r="F350" t="n">
-        <v>49387246</v>
+        <v>51522658</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         </is>
       </c>
       <c r="F351" t="n">
-        <v>193022087</v>
+        <v>194949706</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         </is>
       </c>
       <c r="F352" t="n">
-        <v>8624239</v>
+        <v>8593766</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         </is>
       </c>
       <c r="F353" t="n">
-        <v>6359477294</v>
+        <v>4802731078</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F354" t="n">
-        <v>160805462</v>
+        <v>185844512</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         </is>
       </c>
       <c r="F355" t="n">
-        <v>1842874221</v>
+        <v>1794140501</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="F356" t="n">
-        <v>1215210773</v>
+        <v>1206702229</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="F357" t="n">
-        <v>58282633</v>
+        <v>58471085</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         </is>
       </c>
       <c r="F358" t="n">
-        <v>925797848</v>
+        <v>974366187</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         </is>
       </c>
       <c r="F359" t="n">
-        <v>587449438</v>
+        <v>615976026</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>1735412115</v>
+        <v>1784818349</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         </is>
       </c>
       <c r="F361" t="n">
-        <v>742275288</v>
+        <v>762923539</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         </is>
       </c>
       <c r="F362" t="n">
-        <v>412212805</v>
+        <v>432368965</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="F363" t="n">
-        <v>2377805133</v>
+        <v>2311698966</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>1006985901</v>
+        <v>1020422570</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>92005408859</v>
+        <v>92126354650</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         </is>
       </c>
       <c r="F366" t="n">
-        <v>7709925795</v>
+        <v>7104259051</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         </is>
       </c>
       <c r="F367" t="n">
-        <v>465251001</v>
+        <v>537513798</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>4865700375</v>
+        <v>4863225593</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         </is>
       </c>
       <c r="F369" t="n">
-        <v>2836993325</v>
+        <v>2818061397</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>7876582660</v>
+        <v>7778868581</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>1923178121</v>
+        <v>2059393029</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>131822966</v>
+        <v>120204398</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>58169865869</v>
+        <v>57231180014</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>8472992500</v>
+        <v>8284582144</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>1819909390</v>
+        <v>1540743181</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>1832837768</v>
+        <v>1835211389</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>850162444</v>
+        <v>790124127</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>2952555527</v>
+        <v>2878661878</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         </is>
       </c>
       <c r="F379" t="n">
-        <v>3732026047</v>
+        <v>3434178234</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         </is>
       </c>
       <c r="F380" t="n">
-        <v>1282770125</v>
+        <v>1320939095</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="F381" t="n">
-        <v>4510589233</v>
+        <v>4909371207</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="F382" t="n">
-        <v>4706123947</v>
+        <v>4720013373</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         </is>
       </c>
       <c r="F383" t="n">
-        <v>1151842100</v>
+        <v>1319401432</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         </is>
       </c>
       <c r="F384" t="n">
-        <v>221604294</v>
+        <v>218188403</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         </is>
       </c>
       <c r="F385" t="n">
-        <v>1203017316</v>
+        <v>1263437473</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         </is>
       </c>
       <c r="F386" t="n">
-        <v>1413533102</v>
+        <v>1513673511</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         </is>
       </c>
       <c r="F387" t="n">
-        <v>3706581772</v>
+        <v>3858592841</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="F388" t="n">
-        <v>3408408285</v>
+        <v>3602738060</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         </is>
       </c>
       <c r="F389" t="n">
-        <v>12942364731</v>
+        <v>12667722685</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         </is>
       </c>
       <c r="F390" t="n">
-        <v>2087546848</v>
+        <v>2149527588</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         </is>
       </c>
       <c r="F391" t="n">
-        <v>1982612178</v>
+        <v>2039797179</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         </is>
       </c>
       <c r="F392" t="n">
-        <v>2904098368</v>
+        <v>2920967191</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         </is>
       </c>
       <c r="F393" t="n">
-        <v>91238489</v>
+        <v>91715670</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         </is>
       </c>
       <c r="F394" t="n">
-        <v>784385037</v>
+        <v>781137056</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         </is>
       </c>
       <c r="F395" t="n">
-        <v>4081887</v>
+        <v>5042875</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         </is>
       </c>
       <c r="F396" t="n">
-        <v>403880156</v>
+        <v>418056826</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         </is>
       </c>
       <c r="F397" t="n">
-        <v>11328067122</v>
+        <v>11251810067</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         </is>
       </c>
       <c r="F398" t="n">
-        <v>1445378329</v>
+        <v>1309607546</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="F399" t="n">
-        <v>1648563219</v>
+        <v>1622712333</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         </is>
       </c>
       <c r="F400" t="n">
-        <v>65002234</v>
+        <v>69264771</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         </is>
       </c>
       <c r="F401" t="n">
-        <v>1000069647</v>
+        <v>1005075696</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         </is>
       </c>
       <c r="F402" t="n">
-        <v>297600424</v>
+        <v>307842923</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         </is>
       </c>
       <c r="F403" t="n">
-        <v>141553234</v>
+        <v>108661322</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="F404" t="n">
-        <v>3665782411</v>
+        <v>3514571938</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         </is>
       </c>
       <c r="F405" t="n">
-        <v>3384967331</v>
+        <v>3565126110</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         </is>
       </c>
       <c r="F406" t="n">
-        <v>1842464843</v>
+        <v>1914528609</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         </is>
       </c>
       <c r="F407" t="n">
-        <v>2228746851</v>
+        <v>2121185867</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="F408" t="n">
-        <v>19538918</v>
+        <v>19775301</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         </is>
       </c>
       <c r="F409" t="n">
-        <v>19548955</v>
+        <v>20256945</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         </is>
       </c>
       <c r="F410" t="n">
-        <v>10617078</v>
+        <v>10844331</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         </is>
       </c>
       <c r="F411" t="n">
-        <v>10220188</v>
+        <v>10609144</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         </is>
       </c>
       <c r="F412" t="n">
-        <v>2400044</v>
+        <v>2668953</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1230226028</v>
+        <v>1200914943</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1132066917</v>
+        <v>1124857202</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         </is>
       </c>
       <c r="F415" t="n">
-        <v>6197379</v>
+        <v>6216387</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         </is>
       </c>
       <c r="F416" t="n">
-        <v>6137170</v>
+        <v>6152671</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         </is>
       </c>
       <c r="F417" t="n">
-        <v>2034450553</v>
+        <v>2052836383</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1834560</v>
+        <v>2284788755</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1687715971</v>
+        <v>1692358106</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1900162487</v>
+        <v>1814472</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1775338744</v>
+        <v>1779798968</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         </is>
       </c>
       <c r="F422" t="n">
-        <v>2386702251</v>
+        <v>2394029653</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         </is>
       </c>
       <c r="F423" t="n">
-        <v>2277043781</v>
+        <v>2284384957</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         </is>
       </c>
       <c r="F424" t="n">
-        <v>2277887409</v>
+        <v>2184495794</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         </is>
       </c>
       <c r="F425" t="n">
-        <v>2776747560</v>
+        <v>2780601255</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         </is>
       </c>
       <c r="F426" t="n">
-        <v>1143905094</v>
+        <v>1130117765</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         </is>
       </c>
       <c r="F427" t="n">
-        <v>55936149</v>
+        <v>63497774</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         </is>
       </c>
       <c r="F428" t="n">
-        <v>18469881</v>
+        <v>20439761</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         </is>
       </c>
       <c r="F429" t="n">
-        <v>402413226</v>
+        <v>402012489</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="F430" t="n">
-        <v>2489027872</v>
+        <v>2558369208</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         </is>
       </c>
       <c r="F431" t="n">
-        <v>1538516096</v>
+        <v>1528699519</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         </is>
       </c>
       <c r="F432" t="n">
-        <v>1012081307</v>
+        <v>1013880211</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         </is>
       </c>
       <c r="F433" t="n">
-        <v>176661857</v>
+        <v>176911917</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         </is>
       </c>
       <c r="F434" t="n">
-        <v>254356515</v>
+        <v>261374314</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="F435" t="n">
-        <v>514371983</v>
+        <v>566064087</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="F436" t="n">
-        <v>1432605999</v>
+        <v>1333112640</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         </is>
       </c>
       <c r="F437" t="n">
-        <v>770609250</v>
+        <v>784942010</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         </is>
       </c>
       <c r="F438" t="n">
-        <v>37461244</v>
+        <v>35362471</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         </is>
       </c>
       <c r="F439" t="n">
-        <v>2085197955</v>
+        <v>2105858031</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         </is>
       </c>
       <c r="F440" t="n">
-        <v>3701853352</v>
+        <v>3765340414</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         </is>
       </c>
       <c r="F441" t="n">
-        <v>814079125</v>
+        <v>821359560</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         </is>
       </c>
       <c r="F442" t="n">
-        <v>949369526</v>
+        <v>1004647340</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         </is>
       </c>
       <c r="F443" t="n">
-        <v>583031118</v>
+        <v>577710970</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         </is>
       </c>
       <c r="F444" t="n">
-        <v>2237877</v>
+        <v>2161212</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         </is>
       </c>
       <c r="F445" t="n">
-        <v>2256269</v>
+        <v>2248091</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         </is>
       </c>
       <c r="F446" t="n">
-        <v>3275762551</v>
+        <v>3006223593</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         </is>
       </c>
       <c r="F447" t="n">
-        <v>25789393329</v>
+        <v>25839621251</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         </is>
       </c>
       <c r="F448" t="n">
-        <v>1432694473</v>
+        <v>1333805115</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         </is>
       </c>
       <c r="F449" t="n">
-        <v>1479036804</v>
+        <v>1407497768</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         </is>
       </c>
       <c r="F450" t="n">
-        <v>2019383557</v>
+        <v>1996654165</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         </is>
       </c>
       <c r="F451" t="n">
-        <v>1256214</v>
+        <v>1249499</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="F452" t="n">
-        <v>281776876</v>
+        <v>265403831</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="F453" t="n">
-        <v>588761596</v>
+        <v>599970532</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="F454" t="n">
-        <v>609724920</v>
+        <v>625367988</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         </is>
       </c>
       <c r="F455" t="n">
-        <v>595528890</v>
+        <v>618594330</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         </is>
       </c>
       <c r="F456" t="n">
-        <v>502895890</v>
+        <v>510441772</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         </is>
       </c>
       <c r="F457" t="n">
-        <v>243040709</v>
+        <v>227638549</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>2208377211</v>
+        <v>2235056750</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>996978293</v>
+        <v>956133475</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>1480093863</v>
+        <v>1475883384</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>995449224</v>
+        <v>928125109</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>202477583</v>
+        <v>190295758</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>SCOTDL+</t>
+          <t>SCOTCAN</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -16618,7 +16618,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>SCOTDL+</t>
+          <t>SCOTCAN</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -16628,22 +16628,22 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN DEUDA</t>
+          <t>ESPECIALIZADO EN RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>4152926622</v>
+        <v>941224</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>SCOTDL+</t>
+          <t>SCOTCAN</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>SCOTDOL</t>
+          <t>SCOTDGH</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -16653,32 +16653,32 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>SCOTDOL</t>
+          <t>SCOTDGH</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN DEUDA</t>
+          <t>LARGO PLAZO</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>5156775142</v>
+        <v>998540</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>SCOTDOL</t>
+          <t>SCOTDGH</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>SCOTEUR</t>
+          <t>SCOTDIH</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>SCOTEUR</t>
+          <t>SCOTDIH</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -16698,22 +16698,22 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>ESPECIALIZADA EN DEUDA</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>2771838889</v>
+        <v>995462</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>SCOTEUR</t>
+          <t>SCOTDIH</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>SCOTGL+</t>
+          <t>SCOTDL+</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>SCOTGL+</t>
+          <t>SCOTDL+</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -16733,22 +16733,22 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
+          <t>ESPECIALIZADA EN DEUDA</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>3280033245</v>
+        <v>4070593794</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>SCOTGL+</t>
+          <t>SCOTDL+</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>SCOTGLO</t>
+          <t>SCOTDOL</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -16758,7 +16758,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>SCOTGLO</t>
+          <t>SCOTDOL</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -16768,22 +16768,22 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
+          <t>ESPECIALIZADA EN DEUDA</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>6984053536</v>
+        <v>4999753867</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>SCOTGLO</t>
+          <t>SCOTDOL</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>SCOTI10</t>
+          <t>SCOTEUR</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -16793,32 +16793,32 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>SCOTI10</t>
+          <t>SCOTEUR</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>MEDIANO PLAZO</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>3115218083</v>
+        <v>2749387767</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>SCOTI10</t>
+          <t>SCOTEUR</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>SCOTI12</t>
+          <t>SCOTGL+</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -16828,7 +16828,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>SCOTI12</t>
+          <t>SCOTGL+</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -16838,22 +16838,22 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>1879748104</v>
+        <v>3566268195</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>SCOTI12</t>
+          <t>SCOTGL+</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>SCOTI14</t>
+          <t>SCOTGLO</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -16863,7 +16863,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>SCOTI14</t>
+          <t>SCOTGLO</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -16873,22 +16873,22 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>7069705683</v>
+        <v>6853429884</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>SCOTI14</t>
+          <t>SCOTGLO</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>SCOTIA1</t>
+          <t>SCOTI10</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -16898,7 +16898,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>SCOTIA1</t>
+          <t>SCOTI10</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -16908,22 +16908,22 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>CORTO PLAZO</t>
+          <t>MEDIANO PLAZO</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>31370519180</v>
+        <v>3110992737</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>SCOTIA1</t>
+          <t>SCOTI10</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>SCOTIA2</t>
+          <t>SCOTI12</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -16933,32 +16933,32 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>SCOTIA2</t>
+          <t>SCOTI12</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>MEDIANO PLAZO</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>687955500</v>
+        <v>1831234310</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>SCOTIA2</t>
+          <t>SCOTI12</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>SCOTIAG</t>
+          <t>SCOTI14</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -16968,32 +16968,32 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>SCOTIAG</t>
+          <t>SCOTI14</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>CORTO PLAZO GUBERNAMENTAL</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>28679768926</v>
+        <v>6795880435</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>SCOTIAG</t>
+          <t>SCOTI14</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>SCOTILP</t>
+          <t>SCOTIA1</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -17003,7 +17003,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>SCOTILP</t>
+          <t>SCOTIA1</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -17013,22 +17013,22 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>LARGO PLAZO</t>
+          <t>CORTO PLAZO</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>546979775</v>
+        <v>31907042063</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>SCOTILP</t>
+          <t>SCOTIA1</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>SCOTIMB</t>
+          <t>SCOTIA2</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -17038,7 +17038,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>SCOTIMB</t>
+          <t>SCOTIA2</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -17048,22 +17048,22 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>DISCRECIONAL DEUDA</t>
+          <t>MEDIANO PLAZO</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>2102262587</v>
+        <v>660247905</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>SCOTIMB</t>
+          <t>SCOTIA2</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>SCOTLPG</t>
+          <t>SCOTIAG</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -17073,7 +17073,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>SCOTLPG</t>
+          <t>SCOTIAG</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -17083,22 +17083,22 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>LARGO PLAZO GUBERNAMENTAL</t>
+          <t>CORTO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>1804614825</v>
+        <v>31221503212</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>SCOTLPG</t>
+          <t>SCOTIAG</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>SCOTQNT</t>
+          <t>SCOTILP</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -17108,32 +17108,32 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>SCOTQNT</t>
+          <t>SCOTILP</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>LARGO PLAZO</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>1607523214</v>
+        <v>537803146</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>SCOTQNT</t>
+          <t>SCOTILP</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>SCOTUDI</t>
+          <t>SCOTIMB</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>SCOTUDI</t>
+          <t>SCOTIMB</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -17153,22 +17153,22 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>LARGO PLAZO GUBERNAMENTAL</t>
+          <t>DISCRECIONAL DEUDA</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>1262369568</v>
+        <v>1973017263</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>SCOTUDI</t>
+          <t>SCOTIMB</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>SCOTUSA</t>
+          <t>SCOTLPG</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -17178,42 +17178,42 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>SCOTUSA</t>
+          <t>SCOTLPG</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
+          <t>LARGO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>15162480217</v>
+        <v>1678890021</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>SCOTUSA</t>
+          <t>SCOTLPG</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>SELECTD</t>
+          <t>SCOTQNT</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>SCOTIA</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>SELECTD</t>
+          <t>SCOTQNT</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -17227,158 +17227,158 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>641248944</v>
+        <v>1602333010</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>SELECTD</t>
+          <t>SCOTQNT</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>SELECTM</t>
+          <t>SCOTUDI</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>SCOTIA</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>SELECTM</t>
+          <t>SCOTUDI</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>LARGO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>1259096678</v>
+        <v>1208045856</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>SELECTM</t>
+          <t>SCOTUDI</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>SK-DCP</t>
+          <t>SCOTUSA</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>SKANDIA</t>
+          <t>SCOTIA</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>SK-DCP</t>
+          <t>SCOTUSA</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>CORTO PLAZO</t>
+          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>10044472928</v>
+        <v>16589592884</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>SK-DCP</t>
+          <t>SCOTUSA</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>SK-DEST</t>
+          <t>SELECTD</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>SKANDIA</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>SK-DEST</t>
+          <t>SELECTD</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>MEDIANO PLAZO</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>3705350581</v>
+        <v>645615319</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>SK-DEST</t>
+          <t>SELECTD</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>SK-GUB</t>
+          <t>SELECTM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>SKANDIA</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>SK-GUB</t>
+          <t>SELECTM</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>CORTO PLAZO GUBERNAMENTAL</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>1020518825</v>
+        <v>1264267011</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>SK-GUB</t>
+          <t>SELECTM</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>SK-RVMX</t>
+          <t>SK-DCP</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -17388,32 +17388,32 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>SK-RVMX</t>
+          <t>SK-DCP</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES MEXICANAS</t>
+          <t>CORTO PLAZO</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>1191016211</v>
+        <v>9673941517</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>SK-RVMX</t>
+          <t>SK-DCP</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>SK-RVST</t>
+          <t>SK-DEST</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -17423,172 +17423,172 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>SK-RVST</t>
+          <t>SK-DEST</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
+          <t>MEDIANO PLAZO</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>2132271911</v>
+        <v>3761579244</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>SK-RVST</t>
+          <t>SK-DEST</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>SNX</t>
+          <t>SK-GUB</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>ACTINVER</t>
+          <t>SKANDIA</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>SNX</t>
+          <t>SK-GUB</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>CORTO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>5899670364</v>
+        <v>1190055832</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>SNX</t>
+          <t>SK-GUB</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>ST&amp;ER-1</t>
+          <t>SK-RVMX</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>SKANDIA</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>ST&amp;ER-1</t>
+          <t>SK-RVMX</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>CORTO PLAZO</t>
+          <t>ESPECIALIZADA EN ACCIONES MEXICANAS</t>
         </is>
       </c>
       <c r="F488" t="n">
-        <v>17865063423</v>
+        <v>1196297442</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>ST&amp;ER-1</t>
+          <t>SK-RVMX</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>ST&amp;ER-4</t>
+          <t>SK-RVST</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>SKANDIA</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>ST&amp;ER-4</t>
+          <t>SK-RVST</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>MEDIANO PLAZO</t>
+          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
         </is>
       </c>
       <c r="F489" t="n">
-        <v>853848977</v>
+        <v>2147649181</v>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>ST&amp;ER-4</t>
+          <t>SK-RVST</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>ST&amp;ER-5</t>
+          <t>SNX</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>ACTINVER</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>ST&amp;ER-5</t>
+          <t>SNX</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>CORTO PLAZO EN MONEDA EXTRANJERA</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F490" t="n">
-        <v>1856962246</v>
+        <v>5927208819</v>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>ST&amp;ER-5</t>
+          <t>SNX</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>ST&amp;ER-7</t>
+          <t>ST&amp;ER-1</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -17598,7 +17598,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>ST&amp;ER-7</t>
+          <t>ST&amp;ER-1</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -17608,22 +17608,22 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>LARGO PLAZO</t>
+          <t>CORTO PLAZO</t>
         </is>
       </c>
       <c r="F491" t="n">
-        <v>578798954</v>
+        <v>17812519687</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>ST&amp;ER-7</t>
+          <t>ST&amp;ER-1</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>ST&amp;ER-C</t>
+          <t>ST&amp;ER-4</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -17633,32 +17633,32 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>ST&amp;ER-C</t>
+          <t>ST&amp;ER-4</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES MEXICANAS</t>
+          <t>MEDIANO PLAZO</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>322061208</v>
+        <v>848125537</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>ST&amp;ER-C</t>
+          <t>ST&amp;ER-4</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>ST&amp;ER1G</t>
+          <t>ST&amp;ER-5</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -17668,7 +17668,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>ST&amp;ER1G</t>
+          <t>ST&amp;ER-5</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -17678,22 +17678,22 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>CORTO PLAZO GUBERNAMENTAL</t>
+          <t>CORTO PLAZO EN MONEDA EXTRANJERA</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>8573826799</v>
+        <v>1720479705</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>ST&amp;ER1G</t>
+          <t>ST&amp;ER-5</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>ST&amp;ER1P</t>
+          <t>ST&amp;ER-7</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -17703,7 +17703,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>ST&amp;ER1P</t>
+          <t>ST&amp;ER-7</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -17713,22 +17713,22 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>CORTO PLAZO</t>
+          <t>LARGO PLAZO</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>1398436384</v>
+        <v>572141808</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>ST&amp;ER1P</t>
+          <t>ST&amp;ER-7</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>ST&amp;ER1X</t>
+          <t>ST&amp;ER-C</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -17738,32 +17738,32 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>ST&amp;ER1X</t>
+          <t>ST&amp;ER-C</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>CORTO PLAZO</t>
+          <t>ESPECIALIZADA EN ACCIONES MEXICANAS</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>261032009</v>
+        <v>306590195</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>ST&amp;ER1X</t>
+          <t>ST&amp;ER-C</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>ST&amp;ERPB</t>
+          <t>ST&amp;ER1G</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -17773,7 +17773,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>ST&amp;ERPB</t>
+          <t>ST&amp;ER1G</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -17783,22 +17783,22 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>CORTO PLAZO</t>
+          <t>CORTO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>21321829657</v>
+        <v>8902833971</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>ST&amp;ERPB</t>
+          <t>ST&amp;ER1G</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>STER-EQ</t>
+          <t>ST&amp;ER1P</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -17808,32 +17808,32 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>STER-EQ</t>
+          <t>ST&amp;ER1P</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
+          <t>CORTO PLAZO</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>459210134</v>
+        <v>1424860885</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>STER-EQ</t>
+          <t>ST&amp;ER1P</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>STER-OP</t>
+          <t>ST&amp;ER1X</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -17843,32 +17843,32 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>STER-OP</t>
+          <t>ST&amp;ER1X</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>CORTO PLAZO</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>2808186412</v>
+        <v>248689138</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>STER-OP</t>
+          <t>ST&amp;ER1X</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>STER10P</t>
+          <t>ST&amp;ERPB</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -17878,7 +17878,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>STER10P</t>
+          <t>ST&amp;ERPB</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -17892,18 +17892,18 @@
         </is>
       </c>
       <c r="F499" t="n">
-        <v>4745349103</v>
+        <v>20835221254</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>STER10P</t>
+          <t>ST&amp;ERPB</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>STERDOW</t>
+          <t>STER-EQ</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -17913,7 +17913,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>STERDOW</t>
+          <t>STER-EQ</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -17927,18 +17927,18 @@
         </is>
       </c>
       <c r="F500" t="n">
-        <v>2004057662</v>
+        <v>481469600</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>STERDOW</t>
+          <t>STER-EQ</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>STEREAL</t>
+          <t>STER-OP</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -17948,32 +17948,32 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>STEREAL</t>
+          <t>STER-OP</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>DISCRECIONAL DEUDA</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>812382956</v>
+        <v>2827243084</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>STEREAL</t>
+          <t>STER-OP</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>STERGOB</t>
+          <t>STER10P</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -17983,7 +17983,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>STERGOB</t>
+          <t>STER10P</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -17993,22 +17993,22 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>CORTO PLAZO GUBERNAMENTAL</t>
+          <t>CORTO PLAZO</t>
         </is>
       </c>
       <c r="F502" t="n">
-        <v>63018956335</v>
+        <v>4969982616</v>
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>STERGOB</t>
+          <t>STER10P</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>STERMXN</t>
+          <t>STERDOW</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>STERMXN</t>
+          <t>STERDOW</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -18028,22 +18028,22 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
         </is>
       </c>
       <c r="F503" t="n">
-        <v>7418682502</v>
+        <v>2008358949</v>
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>STERMXN</t>
+          <t>STERDOW</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>STERNDQ</t>
+          <t>STEREAL</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -18053,32 +18053,32 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>STERNDQ</t>
+          <t>STEREAL</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
+          <t>DISCRECIONAL DEUDA</t>
         </is>
       </c>
       <c r="F504" t="n">
-        <v>3117204818</v>
+        <v>803230072</v>
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>STERNDQ</t>
+          <t>STEREAL</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>STERUSD</t>
+          <t>STERGOB</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -18088,42 +18088,42 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>STERUSD</t>
+          <t>STERGOB</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN DEUDA</t>
+          <t>CORTO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F505" t="n">
-        <v>7476653728</v>
+        <v>63551785609</v>
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>STERUSD</t>
+          <t>STERGOB</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>STRAT</t>
+          <t>STERMXN</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>COMPASS</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>STRAT</t>
+          <t>STERMXN</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -18137,18 +18137,18 @@
         </is>
       </c>
       <c r="F506" t="n">
-        <v>2588580318</v>
+        <v>7850658841</v>
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>STRAT</t>
+          <t>STERMXN</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>STRGOB2</t>
+          <t>STERNDQ</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -18158,32 +18158,32 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>STRGOB2</t>
+          <t>STERNDQ</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>CORTO PLAZO GUBERNAMENTAL</t>
+          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
         </is>
       </c>
       <c r="F507" t="n">
-        <v>4131955425</v>
+        <v>3376928333</v>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>STRGOB2</t>
+          <t>STERNDQ</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>STRIVS1</t>
+          <t>STERUSD</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -18193,7 +18193,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>STRIVS1</t>
+          <t>STERUSD</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -18203,32 +18203,32 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>ESPECIALIZADA EN DEUDA</t>
         </is>
       </c>
       <c r="F508" t="n">
-        <v>479589347</v>
+        <v>7456147219</v>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>STRIVS1</t>
+          <t>STERUSD</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>STRIVS2</t>
+          <t>STRAT</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>COMPASS</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>STRIVS2</t>
+          <t>STRAT</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -18242,18 +18242,18 @@
         </is>
       </c>
       <c r="F509" t="n">
-        <v>312570134</v>
+        <v>2623455317</v>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>STRIVS2</t>
+          <t>STRAT</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>SUPER</t>
+          <t>STRGOB2</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>SUPER</t>
+          <t>STRGOB2</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -18273,22 +18273,22 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>CORTO PLAZO</t>
+          <t>CORTO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F510" t="n">
-        <v>32345257046</v>
+        <v>4284047094</v>
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>SUPER</t>
+          <t>STRGOB2</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>SUPER-C</t>
+          <t>STRIVS1</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -18298,7 +18298,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>SUPER-C</t>
+          <t>STRIVS1</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -18312,18 +18312,18 @@
         </is>
       </c>
       <c r="F511" t="n">
-        <v>674419214</v>
+        <v>392354414</v>
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>SUPER-C</t>
+          <t>STRIVS1</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>SUPER-P</t>
+          <t>STRIVS2</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -18333,7 +18333,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>SUPER-P</t>
+          <t>STRIVS2</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -18347,63 +18347,63 @@
         </is>
       </c>
       <c r="F512" t="n">
-        <v>2223582355</v>
+        <v>311683411</v>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>SUPER-P</t>
+          <t>STRIVS2</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
         <is>
-          <t>SUR-GBO</t>
+          <t>SUPER</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>SURA</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>SUR-GBO</t>
+          <t>SUPER</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN DEUDA</t>
+          <t>CORTO PLAZO</t>
         </is>
       </c>
       <c r="F513" t="n">
-        <v>1119266</v>
+        <v>31714546451</v>
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>SUR-GBO</t>
+          <t>SUPER</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
         <is>
-          <t>SUR-MS</t>
+          <t>SUPER-C</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>SURA</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>SUR-MS</t>
+          <t>SUPER-C</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -18413,32 +18413,32 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>ESPECIALIZADO EN RENTA VARIABLE NACIONAL</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F514" t="n">
-        <v>2822062</v>
+        <v>647834627</v>
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>SUR-MS</t>
+          <t>SUPER-C</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
         <is>
-          <t>SUR-RV</t>
+          <t>SUPER-P</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>SURA</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>SUR-RV</t>
+          <t>SUPER-P</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -18448,22 +18448,22 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F515" t="n">
-        <v>2694637979</v>
+        <v>2239293052</v>
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>SUR-RV</t>
+          <t>SUPER-P</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
         <is>
-          <t>SUR1E</t>
+          <t>SUR-GBO</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -18473,32 +18473,32 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>SUR1E</t>
+          <t>SUR-GBO</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>CORTO PLAZO</t>
+          <t>ESPECIALIZADA EN DEUDA</t>
         </is>
       </c>
       <c r="F516" t="n">
-        <v>5941471817</v>
+        <v>1155062</v>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>SUR1E</t>
+          <t>SUR-GBO</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
         <is>
-          <t>SUR2018</t>
+          <t>SUR-MS</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -18508,7 +18508,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>SUR2018</t>
+          <t>SUR-MS</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -18518,22 +18518,22 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>ESPECIALIZADO EN RENTA VARIABLE NACIONAL</t>
         </is>
       </c>
       <c r="F517" t="n">
-        <v>298896794</v>
+        <v>2757941</v>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>SUR2018</t>
+          <t>SUR-MS</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
         <is>
-          <t>SUR2026</t>
+          <t>SUR-RV</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>SUR2026</t>
+          <t>SUR-RV</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -18553,22 +18553,22 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>ESPECIALIZADA EN ACCIONES</t>
         </is>
       </c>
       <c r="F518" t="n">
-        <v>2282604540</v>
+        <v>2721809616</v>
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>SUR2026</t>
+          <t>SUR-RV</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
         <is>
-          <t>SUR2034</t>
+          <t>SUR1E</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -18578,32 +18578,32 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>SUR2034</t>
+          <t>SUR1E</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>CORTO PLAZO</t>
         </is>
       </c>
       <c r="F519" t="n">
-        <v>4488782512</v>
+        <v>5872722414</v>
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>SUR2034</t>
+          <t>SUR1E</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
         <is>
-          <t>SUR2042</t>
+          <t>SUR2018</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>SUR2042</t>
+          <t>SUR2018</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -18627,18 +18627,18 @@
         </is>
       </c>
       <c r="F520" t="n">
-        <v>4968929965</v>
+        <v>279182485</v>
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>SUR2042</t>
+          <t>SUR2018</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>SUR2050</t>
+          <t>SUR2026</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>SUR2050</t>
+          <t>SUR2026</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -18662,18 +18662,18 @@
         </is>
       </c>
       <c r="F521" t="n">
-        <v>2915403195</v>
+        <v>2219963463</v>
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>SUR2050</t>
+          <t>SUR2026</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
         <is>
-          <t>SUR2058</t>
+          <t>SUR2034</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -18683,7 +18683,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>SUR2058</t>
+          <t>SUR2034</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -18697,18 +18697,18 @@
         </is>
       </c>
       <c r="F522" t="n">
-        <v>1004907724</v>
+        <v>4499608006</v>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>SUR2058</t>
+          <t>SUR2034</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>SUR2066</t>
+          <t>SUR2042</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -18718,7 +18718,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>SUR2066</t>
+          <t>SUR2042</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -18732,18 +18732,18 @@
         </is>
       </c>
       <c r="F523" t="n">
-        <v>104114931</v>
+        <v>5027927710</v>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>SUR2066</t>
+          <t>SUR2042</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
         <is>
-          <t>SUR30</t>
+          <t>SUR2050</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -18753,32 +18753,32 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>SUR30</t>
+          <t>SUR2050</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>MEDIANO PLAZO</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F524" t="n">
-        <v>9392994</v>
+        <v>3032836227</v>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>SUR30</t>
+          <t>SUR2050</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
         <is>
-          <t>SUR30E</t>
+          <t>SUR2058</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -18788,32 +18788,32 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>SUR30E</t>
+          <t>SUR2058</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>LARGO PLAZO</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F525" t="n">
-        <v>1068271672</v>
+        <v>1044772236</v>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>SUR30E</t>
+          <t>SUR2058</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
         <is>
-          <t>SURABS1</t>
+          <t>SUR2066</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -18823,32 +18823,32 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>SURABS1</t>
+          <t>SUR2066</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>CORTO PLAZO</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F526" t="n">
-        <v>24965915</v>
+        <v>113192600</v>
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>SURABS1</t>
+          <t>SUR2066</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
         <is>
-          <t>SURAGR</t>
+          <t>SUR30</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -18858,32 +18858,32 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>SURAGR</t>
+          <t>SUR30</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>MAYORITARIAMENTE EN VALORES DE DEUDA</t>
+          <t>MEDIANO PLAZO</t>
         </is>
       </c>
       <c r="F527" t="n">
-        <v>228406056</v>
+        <v>9591479</v>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>SURAGR</t>
+          <t>SUR30</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
         <is>
-          <t>SURASIA</t>
+          <t>SUR30E</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -18893,32 +18893,32 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>SURASIA</t>
+          <t>SUR30E</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
+          <t>LARGO PLAZO</t>
         </is>
       </c>
       <c r="F528" t="n">
-        <v>571847971</v>
+        <v>1127767779</v>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>SURASIA</t>
+          <t>SUR30E</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
         <is>
-          <t>SURB05</t>
+          <t>SURABS1</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -18928,7 +18928,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>SURB05</t>
+          <t>SURABS1</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -18938,22 +18938,22 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>LARGO PLAZO GUBERNAMENTAL</t>
+          <t>CORTO PLAZO</t>
         </is>
       </c>
       <c r="F529" t="n">
-        <v>3614521353</v>
+        <v>24949606</v>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>SURB05</t>
+          <t>SURABS1</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
         <is>
-          <t>SURB10</t>
+          <t>SURAGR</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -18963,32 +18963,32 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>SURB10</t>
+          <t>SURAGR</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>MEDIANO PLAZO</t>
+          <t>MAYORITARIAMENTE EN VALORES DE DEUDA</t>
         </is>
       </c>
       <c r="F530" t="n">
-        <v>1732072</v>
+        <v>232477262</v>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>SURB10</t>
+          <t>SURAGR</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
         <is>
-          <t>SURCETE</t>
+          <t>SURASIA</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -18998,32 +18998,32 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>SURCETE</t>
+          <t>SURASIA</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>CORTO PLAZO GUBERNAMENTAL</t>
+          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
         </is>
       </c>
       <c r="F531" t="n">
-        <v>8245554300</v>
+        <v>554629703</v>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>SURCETE</t>
+          <t>SURASIA</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
         <is>
-          <t>SURCON</t>
+          <t>SURB05</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -19033,7 +19033,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>SURCON</t>
+          <t>SURB05</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -19043,22 +19043,22 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>DISCRECIONAL DEUDA</t>
+          <t>LARGO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F532" t="n">
-        <v>2462412234</v>
+        <v>3617597609</v>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>SURCON</t>
+          <t>SURB05</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
         <is>
-          <t>SURCORP</t>
+          <t>SURB10</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -19068,7 +19068,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>SURCORP</t>
+          <t>SURB10</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -19082,18 +19082,18 @@
         </is>
       </c>
       <c r="F533" t="n">
-        <v>617264521</v>
+        <v>1605397</v>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>SURCORP</t>
+          <t>SURB10</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
         <is>
-          <t>SURCRE</t>
+          <t>SURCETE</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -19103,32 +19103,32 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>SURCRE</t>
+          <t>SURCETE</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>MAYORITARIAMENTE EN VALORES DE DEUDA</t>
+          <t>CORTO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F534" t="n">
-        <v>604781615</v>
+        <v>8039191173</v>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>SURCRE</t>
+          <t>SURCETE</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
         <is>
-          <t>SURGLOB</t>
+          <t>SURCON</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -19138,32 +19138,32 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>SURGLOB</t>
+          <t>SURCON</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
+          <t>DISCRECIONAL DEUDA</t>
         </is>
       </c>
       <c r="F535" t="n">
-        <v>3935357715</v>
+        <v>2299893196</v>
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>SURGLOB</t>
+          <t>SURCON</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
         <is>
-          <t>SURGOB</t>
+          <t>SURCORP</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -19173,7 +19173,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>SURGOB</t>
+          <t>SURCORP</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -19183,22 +19183,22 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>CORTO PLAZO GUBERNAMENTAL</t>
+          <t>MEDIANO PLAZO</t>
         </is>
       </c>
       <c r="F536" t="n">
-        <v>4962868243</v>
+        <v>582256530</v>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>SURGOB</t>
+          <t>SURCORP</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
         <is>
-          <t>SURMILA</t>
+          <t>SURCRE</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -19208,7 +19208,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>SURMILA</t>
+          <t>SURCRE</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -19218,22 +19218,22 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>ESPECIALIZADO EN RENTA VARIABLE</t>
+          <t>MAYORITARIAMENTE EN VALORES DE DEUDA</t>
         </is>
       </c>
       <c r="F537" t="n">
-        <v>3356721</v>
+        <v>613540592</v>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>SURMILA</t>
+          <t>SURCRE</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
         <is>
-          <t>SURMOD</t>
+          <t>SURGLOB</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -19243,7 +19243,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>SURMOD</t>
+          <t>SURGLOB</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -19253,22 +19253,22 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN DEUDA</t>
+          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
         </is>
       </c>
       <c r="F538" t="n">
-        <v>978855256</v>
+        <v>3881492678</v>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>SURMOD</t>
+          <t>SURGLOB</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
         <is>
-          <t>SURPAT</t>
+          <t>SURGOB</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -19278,32 +19278,32 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>SURPAT</t>
+          <t>SURGOB</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES MEXICANAS</t>
+          <t>CORTO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F539" t="n">
-        <v>3296605064</v>
+        <v>4574529928</v>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>SURPAT</t>
+          <t>SURGOB</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
         <is>
-          <t>SURPLUS</t>
+          <t>SURMILA</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -19313,7 +19313,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>SURPLUS</t>
+          <t>SURMILA</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -19323,22 +19323,22 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>ESPECIALIZADO EN RENTA VARIABLE NACIONAL</t>
+          <t>ESPECIALIZADO EN RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F540" t="n">
-        <v>41510684</v>
+        <v>3286700</v>
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>SURPLUS</t>
+          <t>SURMILA</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
         <is>
-          <t>SURREAL</t>
+          <t>SURMOD</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -19348,32 +19348,32 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>SURREAL</t>
+          <t>SURMOD</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>LARGO PLAZO TASA REAL</t>
+          <t>ESPECIALIZADA EN DEUDA</t>
         </is>
       </c>
       <c r="F541" t="n">
-        <v>3092781778</v>
+        <v>963016665</v>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>SURREAL</t>
+          <t>SURMOD</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
         <is>
-          <t>SURRVMX</t>
+          <t>SURPAT</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -19383,7 +19383,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>SURRVMX</t>
+          <t>SURPAT</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -19393,22 +19393,22 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INDIZADA AL IPC</t>
+          <t>ESPECIALIZADA EN ACCIONES MEXICANAS</t>
         </is>
       </c>
       <c r="F542" t="n">
-        <v>482893732</v>
+        <v>3509548241</v>
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>SURRVMX</t>
+          <t>SURPAT</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
         <is>
-          <t>SURUDI</t>
+          <t>SURPLUS</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -19418,32 +19418,32 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>SURUDI</t>
+          <t>SURPLUS</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>MEDIANO PLAZO</t>
+          <t>ESPECIALIZADO EN RENTA VARIABLE NACIONAL</t>
         </is>
       </c>
       <c r="F543" t="n">
-        <v>3172103300</v>
+        <v>41310912</v>
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>SURUDI</t>
+          <t>SURPLUS</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
         <is>
-          <t>SURUSD</t>
+          <t>SURREAL</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -19453,32 +19453,32 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>SURUSD</t>
+          <t>SURREAL</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN DEUDA</t>
+          <t>LARGO PLAZO TASA REAL</t>
         </is>
       </c>
       <c r="F544" t="n">
-        <v>762370952</v>
+        <v>3034227827</v>
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>SURUSD</t>
+          <t>SURREAL</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
         <is>
-          <t>SURVEUR</t>
+          <t>SURRVMX</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -19488,7 +19488,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>SURVEUR</t>
+          <t>SURRVMX</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -19498,67 +19498,67 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
+          <t>ESPECIALIZADA EN ACCIONES INDIZADA AL IPC</t>
         </is>
       </c>
       <c r="F545" t="n">
-        <v>136629738</v>
+        <v>477945818</v>
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>SURVEUR</t>
+          <t>SURRVMX</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
         <is>
-          <t>SVIVE20</t>
+          <t>SURUDI</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>SURA</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>SVIVE20</t>
+          <t>SURUDI</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>MAYORITARIAMENTE EN RENTA VARIABLE</t>
+          <t>MEDIANO PLAZO</t>
         </is>
       </c>
       <c r="F546" t="n">
-        <v>2027095513</v>
+        <v>3188133850</v>
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>SVIVE20</t>
+          <t>SURUDI</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
         <is>
-          <t>SVIVE35</t>
+          <t>SURUSD</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>SURA</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>SVIVE35</t>
+          <t>SURUSD</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -19568,32 +19568,32 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>ESPECIALIZADA EN DEUDA</t>
         </is>
       </c>
       <c r="F547" t="n">
-        <v>3639660076</v>
+        <v>768070623</v>
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>SVIVE35</t>
+          <t>SURUSD</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
         <is>
-          <t>SVIVE50</t>
+          <t>SURVEUR</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>SURA</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>SVIVE50</t>
+          <t>SURVEUR</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -19603,22 +19603,22 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
         </is>
       </c>
       <c r="F548" t="n">
-        <v>1832619804</v>
+        <v>135066189</v>
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>SVIVE50</t>
+          <t>SURVEUR</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
         <is>
-          <t>SVIVE60</t>
+          <t>SVIVE20</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -19628,42 +19628,42 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>SVIVE60</t>
+          <t>SVIVE20</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>DISCRECIONAL DEUDA</t>
+          <t>MAYORITARIAMENTE EN RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F549" t="n">
-        <v>1032681529</v>
+        <v>2027746035</v>
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>SVIVE60</t>
+          <t>SVIVE20</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
         <is>
-          <t>TAURUM</t>
+          <t>SVIVE35</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>COMPASS</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>TAURUM</t>
+          <t>SVIVE35</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -19673,32 +19673,32 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F550" t="n">
-        <v>4351908455</v>
+        <v>3637080515</v>
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>TAURUM</t>
+          <t>SVIVE35</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
         <is>
-          <t>TEMATIK</t>
+          <t>SVIVE50</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>ACTINVER</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>TEMATIK</t>
+          <t>SVIVE50</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -19708,32 +19708,32 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F551" t="n">
-        <v>847661102</v>
+        <v>1835959189</v>
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>TEMATIK</t>
+          <t>SVIVE50</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
         <is>
-          <t>TEMGBIA</t>
+          <t>SVIVE60</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>FRANKLIN</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>TEMGBIA</t>
+          <t>SVIVE60</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -19743,32 +19743,32 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>LARGO PLAZO</t>
+          <t>DISCRECIONAL DEUDA</t>
         </is>
       </c>
       <c r="F552" t="n">
-        <v>833976828</v>
+        <v>1035054347</v>
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>TEMGBIA</t>
+          <t>SVIVE60</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
         <is>
-          <t>USA-EQ</t>
+          <t>TAURUM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>COMPASS</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>USA-EQ</t>
+          <t>TAURUM</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -19778,67 +19778,67 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>ESPECIALIZADA EN ACCIONES</t>
         </is>
       </c>
       <c r="F553" t="n">
-        <v>8105821911</v>
+        <v>4351515903</v>
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>USA-EQ</t>
+          <t>TAURUM</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
         <is>
-          <t>VALMX10</t>
+          <t>TEMATIK</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>VALMEX</t>
+          <t>ACTINVER</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>VALMX10</t>
+          <t>TEMATIK</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>CORTO PLAZO</t>
+          <t>ESPECIALIZADA EN ACCIONES</t>
         </is>
       </c>
       <c r="F554" t="n">
-        <v>2081217781</v>
+        <v>876001020</v>
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>VALMX10</t>
+          <t>TEMATIK</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
         <is>
-          <t>VALMX14</t>
+          <t>TEMGBIA</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>VALMEX</t>
+          <t>FRANKLIN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>VALMX14</t>
+          <t>TEMGBIA</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -19848,57 +19848,57 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>CORTO PLAZO GUBERNAMENTAL</t>
+          <t>LARGO PLAZO</t>
         </is>
       </c>
       <c r="F555" t="n">
-        <v>1131835782</v>
+        <v>851144716</v>
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>VALMX14</t>
+          <t>TEMGBIA</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
         <is>
-          <t>VALMX15</t>
+          <t>USA-EQ</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>VALMEX</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>VALMX15</t>
+          <t>USA-EQ</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>LARGO PLAZO GUBERNAMENTAL</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F556" t="n">
-        <v>105979258</v>
+        <v>7897888768</v>
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>VALMX15</t>
+          <t>USA-EQ</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
         <is>
-          <t>VALMX16</t>
+          <t>VALMX10</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -19908,7 +19908,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>VALMX16</t>
+          <t>VALMX10</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -19918,22 +19918,22 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>DISCRECIONAL DEUDA</t>
+          <t>CORTO PLAZO</t>
         </is>
       </c>
       <c r="F557" t="n">
-        <v>3466177035</v>
+        <v>1989824361</v>
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>VALMX16</t>
+          <t>VALMX10</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="inlineStr">
         <is>
-          <t>VALMX17</t>
+          <t>VALMX14</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -19943,7 +19943,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>VALMX17</t>
+          <t>VALMX14</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -19953,22 +19953,22 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>MEDIANO PLAZO GUBERNAMENTAL EN UDIS</t>
+          <t>CORTO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F558" t="n">
-        <v>727228876</v>
+        <v>1131062073</v>
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>VALMX17</t>
+          <t>VALMX14</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="inlineStr">
         <is>
-          <t>VALMX19</t>
+          <t>VALMX15</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -19978,32 +19978,32 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>VALMX19</t>
+          <t>VALMX15</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>LARGO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F559" t="n">
-        <v>10833847912</v>
+        <v>98793748</v>
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>VALMX19</t>
+          <t>VALMX15</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="inlineStr">
         <is>
-          <t>VALMX20</t>
+          <t>VALMX16</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -20013,32 +20013,32 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>VALMX20</t>
+          <t>VALMX16</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES</t>
+          <t>DISCRECIONAL DEUDA</t>
         </is>
       </c>
       <c r="F560" t="n">
-        <v>251636866</v>
+        <v>3470083531</v>
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>VALMX20</t>
+          <t>VALMX16</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="inlineStr">
         <is>
-          <t>VALMX28</t>
+          <t>VALMX17</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -20048,32 +20048,32 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>VALMX28</t>
+          <t>VALMX17</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>MEDIANO PLAZO GUBERNAMENTAL EN UDIS</t>
         </is>
       </c>
       <c r="F561" t="n">
-        <v>25256603962</v>
+        <v>719799942</v>
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>VALMX28</t>
+          <t>VALMX17</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="inlineStr">
         <is>
-          <t>VALMX30</t>
+          <t>VALMX19</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -20083,32 +20083,32 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>VALMX30</t>
+          <t>VALMX19</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>CORTO PLAZO</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F562" t="n">
-        <v>643158325</v>
+        <v>10964468364</v>
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>VALMX30</t>
+          <t>VALMX19</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="inlineStr">
         <is>
-          <t>VALMX34</t>
+          <t>VALMX20</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -20118,32 +20118,32 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>VALMX34</t>
+          <t>VALMX20</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>DISCRECIONAL DEUDA</t>
+          <t>ESPECIALIZADA EN ACCIONES</t>
         </is>
       </c>
       <c r="F563" t="n">
-        <v>1040822020</v>
+        <v>270100179</v>
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>VALMX34</t>
+          <t>VALMX20</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="inlineStr">
         <is>
-          <t>VALMXA</t>
+          <t>VALMX28</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -20153,7 +20153,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>VALMXA</t>
+          <t>VALMX28</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -20167,18 +20167,18 @@
         </is>
       </c>
       <c r="F564" t="n">
-        <v>432049322</v>
+        <v>25657186029</v>
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>VALMXA</t>
+          <t>VALMX28</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
         <is>
-          <t>VALMXES</t>
+          <t>VALMX30</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -20188,32 +20188,32 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>VALMXES</t>
+          <t>VALMX30</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
+          <t>CORTO PLAZO</t>
         </is>
       </c>
       <c r="F565" t="n">
-        <v>663945139</v>
+        <v>704505555</v>
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>VALMXES</t>
+          <t>VALMX30</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="inlineStr">
         <is>
-          <t>VALMXHC</t>
+          <t>VALMX34</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -20223,32 +20223,32 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>VALMXHC</t>
+          <t>VALMX34</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>DISCRECIONAL DEUDA</t>
         </is>
       </c>
       <c r="F566" t="n">
-        <v>1505285519</v>
+        <v>1060898512</v>
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>VALMXHC</t>
+          <t>VALMX34</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="inlineStr">
         <is>
-          <t>VALMXRP</t>
+          <t>VALMXA</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -20258,32 +20258,32 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>VALMXRP</t>
+          <t>VALMXA</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>DISCRECIONAL DEUDA</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F567" t="n">
-        <v>16262328</v>
+        <v>434209170</v>
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>VALMXRP</t>
+          <t>VALMXA</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
         <is>
-          <t>VALMXVL</t>
+          <t>VALMXES</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -20293,7 +20293,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>VALMXVL</t>
+          <t>VALMXES</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -20307,63 +20307,63 @@
         </is>
       </c>
       <c r="F568" t="n">
-        <v>3892803778</v>
+        <v>638285342</v>
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>VALMXVL</t>
+          <t>VALMXES</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="inlineStr">
         <is>
-          <t>VALOR1F</t>
+          <t>VALMXHC</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>MIFEL</t>
+          <t>VALMEX</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>VALOR1F</t>
+          <t>VALMXHC</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>CORTO PLAZO</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F569" t="n">
-        <v>2541518137</v>
+        <v>1518746109</v>
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>VALOR1F</t>
+          <t>VALMXHC</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="inlineStr">
         <is>
-          <t>VALOR3M</t>
+          <t>VALMXRP</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>MIFEL</t>
+          <t>VALMEX</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>VALOR3M</t>
+          <t>VALMXRP</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -20373,32 +20373,32 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>CORTO PLAZO</t>
+          <t>DISCRECIONAL DEUDA</t>
         </is>
       </c>
       <c r="F570" t="n">
-        <v>1627298447</v>
+        <v>16265332</v>
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>VALOR3M</t>
+          <t>VALMXRP</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="inlineStr">
         <is>
-          <t>VALORLP</t>
+          <t>VALMXVL</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>COMPASS</t>
+          <t>VALMEX</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>VALORLP</t>
+          <t>VALMXVL</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -20408,32 +20408,32 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
         </is>
       </c>
       <c r="F571" t="n">
-        <v>1317632828</v>
+        <v>3843627613</v>
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>VALORLP</t>
+          <t>VALMXVL</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
         <is>
-          <t>VALUEF1</t>
+          <t>VALOR1F</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>VALUE</t>
+          <t>MIFEL</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>VALUEF1</t>
+          <t>VALOR1F</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -20443,32 +20443,32 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>MEDIANO PLAZO</t>
+          <t>CORTO PLAZO</t>
         </is>
       </c>
       <c r="F572" t="n">
-        <v>25862748</v>
+        <v>2575776149</v>
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>VALUEF1</t>
+          <t>VALOR1F</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="inlineStr">
         <is>
-          <t>VALUEF2</t>
+          <t>VALOR3M</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>VALUE</t>
+          <t>MIFEL</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>VALUEF2</t>
+          <t>VALOR3M</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -20478,57 +20478,57 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>LARGO PLAZO</t>
+          <t>CORTO PLAZO</t>
         </is>
       </c>
       <c r="F573" t="n">
-        <v>4045750999</v>
+        <v>1625105813</v>
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>VALUEF2</t>
+          <t>VALOR3M</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="inlineStr">
         <is>
-          <t>VALUEF3</t>
+          <t>VALORLP</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>VALUE</t>
+          <t>COMPASS</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>VALUEF3</t>
+          <t>VALORLP</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>LARGO PLAZO</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F574" t="n">
-        <v>271755592</v>
+        <v>1289530244</v>
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>VALUEF3</t>
+          <t>VALORLP</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="inlineStr">
         <is>
-          <t>VALUEF4</t>
+          <t>VALUEF1</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -20538,7 +20538,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>VALUEF4</t>
+          <t>VALUEF1</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -20548,22 +20548,22 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>CORTO PLAZO GUBERNAMENTAL</t>
+          <t>MEDIANO PLAZO</t>
         </is>
       </c>
       <c r="F575" t="n">
-        <v>1656751301</v>
+        <v>23227737</v>
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>VALUEF4</t>
+          <t>VALUEF1</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="inlineStr">
         <is>
-          <t>VALUEF7</t>
+          <t>VALUEF2</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -20573,7 +20573,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>VALUEF7</t>
+          <t>VALUEF2</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -20587,18 +20587,18 @@
         </is>
       </c>
       <c r="F576" t="n">
-        <v>1595791954</v>
+        <v>3800815580</v>
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>VALUEF7</t>
+          <t>VALUEF2</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="inlineStr">
         <is>
-          <t>VALUEF8</t>
+          <t>VALUEF3</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -20608,7 +20608,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>VALUEF8</t>
+          <t>VALUEF3</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -20622,18 +20622,18 @@
         </is>
       </c>
       <c r="F577" t="n">
-        <v>176154040</v>
+        <v>237995719</v>
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>VALUEF8</t>
+          <t>VALUEF3</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="inlineStr">
         <is>
-          <t>VALUEV5</t>
+          <t>VALUEF4</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -20643,32 +20643,32 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>VALUEV5</t>
+          <t>VALUEF4</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES</t>
+          <t>CORTO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F578" t="n">
-        <v>841625268</v>
+        <v>1507636621</v>
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>VALUEV5</t>
+          <t>VALUEF4</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="inlineStr">
         <is>
-          <t>VALUEV6</t>
+          <t>VALUEF7</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -20678,42 +20678,42 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>VALUEV6</t>
+          <t>VALUEF7</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>MAYORITARIAMENTE EN VALORES DE DEUDA</t>
+          <t>LARGO PLAZO</t>
         </is>
       </c>
       <c r="F579" t="n">
-        <v>829295471</v>
+        <v>1637524500</v>
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>VALUEV6</t>
+          <t>VALUEF7</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="inlineStr">
         <is>
-          <t>VECTCOB</t>
+          <t>VALUEF8</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>VECTOR</t>
+          <t>VALUE</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>VECTCOB</t>
+          <t>VALUEF8</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -20723,92 +20723,92 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>CORTO PLAZO EN MONEDA EXTRANJERA</t>
+          <t>LARGO PLAZO</t>
         </is>
       </c>
       <c r="F580" t="n">
-        <v>649213799</v>
+        <v>192917261</v>
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>VECTCOB</t>
+          <t>VALUEF8</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="inlineStr">
         <is>
-          <t>VECTCOR</t>
+          <t>VALUEV5</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>VECTOR</t>
+          <t>VALUE</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>VECTCOR</t>
+          <t>VALUEV5</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>MEDIANO PLAZO</t>
+          <t>ESPECIALIZADA EN ACCIONES</t>
         </is>
       </c>
       <c r="F581" t="n">
-        <v>143661077</v>
+        <v>759221902</v>
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>VECTCOR</t>
+          <t>VALUEV5</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="inlineStr">
         <is>
-          <t>VECTFI</t>
+          <t>VALUEV6</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>VECTOR</t>
+          <t>VALUE</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>VECTFI</t>
+          <t>VALUEV6</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>MEDIANO PLAZO GUBERNAMENTAL</t>
+          <t>MAYORITARIAMENTE EN VALORES DE DEUDA</t>
         </is>
       </c>
       <c r="F582" t="n">
-        <v>175055193</v>
+        <v>747030929</v>
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>VECTFI</t>
+          <t>VALUEV6</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="inlineStr">
         <is>
-          <t>VECTIND</t>
+          <t>VECTCOB</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -20818,32 +20818,32 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>VECTIND</t>
+          <t>VECTCOB</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INDIZADA AL IPC</t>
+          <t>CORTO PLAZO EN MONEDA EXTRANJERA</t>
         </is>
       </c>
       <c r="F583" t="n">
-        <v>81424086</v>
+        <v>557486043</v>
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>VECTIND</t>
+          <t>VECTCOB</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="inlineStr">
         <is>
-          <t>VECTMD</t>
+          <t>VECTCOR</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -20853,7 +20853,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>VECTMD</t>
+          <t>VECTCOR</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -20863,22 +20863,22 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>CORTO PLAZO</t>
+          <t>MEDIANO PLAZO</t>
         </is>
       </c>
       <c r="F584" t="n">
-        <v>630043572</v>
+        <v>138511584</v>
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>VECTMD</t>
+          <t>VECTCOR</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="inlineStr">
         <is>
-          <t>VECTMIX</t>
+          <t>VECTFI</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -20888,32 +20888,32 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>VECTMIX</t>
+          <t>VECTFI</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>ESPECIALIZADO EN RENTA VARIABLE</t>
+          <t>MEDIANO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F585" t="n">
-        <v>141755828</v>
+        <v>157810756</v>
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>VECTMIX</t>
+          <t>VECTFI</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="inlineStr">
         <is>
-          <t>VECTPA</t>
+          <t>VECTIND</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -20923,7 +20923,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>VECTPA</t>
+          <t>VECTIND</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -20933,22 +20933,22 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES</t>
+          <t>ESPECIALIZADA EN ACCIONES INDIZADA AL IPC</t>
         </is>
       </c>
       <c r="F586" t="n">
-        <v>49217824</v>
+        <v>81419285</v>
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>VECTPA</t>
+          <t>VECTIND</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="inlineStr">
         <is>
-          <t>VECTPRE</t>
+          <t>VECTMD</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -20958,7 +20958,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>VECTPRE</t>
+          <t>VECTMD</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -20968,22 +20968,22 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>CORTO PLAZO GUBERNAMENTAL</t>
+          <t>CORTO PLAZO</t>
         </is>
       </c>
       <c r="F587" t="n">
-        <v>22297454071</v>
+        <v>619631673</v>
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>VECTPRE</t>
+          <t>VECTMD</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="inlineStr">
         <is>
-          <t>VECTPZO</t>
+          <t>VECTMIX</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -20993,32 +20993,32 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>VECTPZO</t>
+          <t>VECTMIX</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>LARGO PLAZO</t>
+          <t>ESPECIALIZADO EN RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F588" t="n">
-        <v>87046304</v>
+        <v>128037071</v>
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>VECTPZO</t>
+          <t>VECTMIX</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="inlineStr">
         <is>
-          <t>VECTRF</t>
+          <t>VECTPA</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -21028,32 +21028,32 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>VECTRF</t>
+          <t>VECTPA</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>CORTO PLAZO GUBERNAMENTAL</t>
+          <t>ESPECIALIZADA EN ACCIONES</t>
         </is>
       </c>
       <c r="F589" t="n">
-        <v>3160226831</v>
+        <v>52219001</v>
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>VECTRF</t>
+          <t>VECTPA</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
         <is>
-          <t>VECTSIC</t>
+          <t>VECTPRE</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -21063,32 +21063,32 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>VECTSIC</t>
+          <t>VECTPRE</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
+          <t>CORTO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F590" t="n">
-        <v>1936605107</v>
+        <v>21465592816</v>
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>VECTSIC</t>
+          <t>VECTPRE</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="inlineStr">
         <is>
-          <t>VECTTR</t>
+          <t>VECTPZO</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -21098,7 +21098,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>VECTTR</t>
+          <t>VECTPZO</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -21108,22 +21108,22 @@
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>CORTO PLAZO EN MONEDA EXTRANJERA</t>
+          <t>LARGO PLAZO</t>
         </is>
       </c>
       <c r="F591" t="n">
-        <v>364438091</v>
+        <v>71397885</v>
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>VECTTR</t>
+          <t>VECTPZO</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
         <is>
-          <t>VECTUSA</t>
+          <t>VECTRF</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -21133,32 +21133,32 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>VECTUSA</t>
+          <t>VECTRF</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
+          <t>CORTO PLAZO GUBERNAMENTAL</t>
         </is>
       </c>
       <c r="F592" t="n">
-        <v>675049660</v>
+        <v>2714505372</v>
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>VECTUSA</t>
+          <t>VECTRF</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
         <is>
-          <t>VECTUSD</t>
+          <t>VECTSIC</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -21168,7 +21168,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>VECTUSD</t>
+          <t>VECTSIC</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -21178,67 +21178,67 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES</t>
+          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
         </is>
       </c>
       <c r="F593" t="n">
-        <v>1843619996</v>
+        <v>1956786691</v>
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>VECTUSD</t>
+          <t>VECTSIC</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="inlineStr">
         <is>
-          <t>VLMXESG</t>
+          <t>VECTTR</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>VALMEX</t>
+          <t>VECTOR</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>VLMXESG</t>
+          <t>VECTTR</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>RV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>CORTO PLAZO EN MONEDA EXTRANJERA</t>
         </is>
       </c>
       <c r="F594" t="n">
-        <v>1439809688</v>
+        <v>366455986</v>
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>VLMXESG</t>
+          <t>VECTTR</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
         <is>
-          <t>VLMXETF</t>
+          <t>VECTUSA</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>VALMEX</t>
+          <t>VECTOR</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>VLMXETF</t>
+          <t>VECTUSA</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -21248,32 +21248,32 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
         </is>
       </c>
       <c r="F595" t="n">
-        <v>466008601</v>
+        <v>741495843</v>
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>VLMXETF</t>
+          <t>VECTUSA</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="inlineStr">
         <is>
-          <t>VLMXFLX</t>
+          <t>VECTUSD</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>VALMEX</t>
+          <t>VECTOR</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>VLMXFLX</t>
+          <t>VECTUSD</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -21283,22 +21283,22 @@
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>DISCRECIONAL RENTA VARIABLE</t>
+          <t>ESPECIALIZADA EN ACCIONES</t>
         </is>
       </c>
       <c r="F596" t="n">
-        <v>4542941</v>
+        <v>1789628648</v>
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>VLMXFLX</t>
+          <t>VECTUSD</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="inlineStr">
         <is>
-          <t>VLMXJUB</t>
+          <t>VLMXESG</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -21308,7 +21308,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>VLMXJUB</t>
+          <t>VLMXESG</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -21322,18 +21322,18 @@
         </is>
       </c>
       <c r="F597" t="n">
-        <v>1097986064</v>
+        <v>1478272179</v>
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>VLMXJUB</t>
+          <t>VLMXESG</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="inlineStr">
         <is>
-          <t>VLMXLPE</t>
+          <t>VLMXETF</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -21343,7 +21343,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>VLMXLPE</t>
+          <t>VLMXETF</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -21357,18 +21357,18 @@
         </is>
       </c>
       <c r="F598" t="n">
-        <v>1197205878</v>
+        <v>467860476</v>
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>VLMXLPE</t>
+          <t>VLMXETF</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
         <is>
-          <t>VLMXP24</t>
+          <t>VLMXFLX</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -21378,7 +21378,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>VLMXP24</t>
+          <t>VLMXFLX</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -21392,18 +21392,18 @@
         </is>
       </c>
       <c r="F599" t="n">
-        <v>627650707</v>
+        <v>4539368</v>
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>VLMXP24</t>
+          <t>VLMXFLX</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
         <is>
-          <t>VLMXP31</t>
+          <t>VLMXJUB</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -21413,7 +21413,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>VLMXP31</t>
+          <t>VLMXJUB</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -21427,18 +21427,18 @@
         </is>
       </c>
       <c r="F600" t="n">
-        <v>744590592</v>
+        <v>1105576598</v>
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>VLMXP31</t>
+          <t>VLMXJUB</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
         <is>
-          <t>VLMXP38</t>
+          <t>VLMXLPE</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>VLMXP38</t>
+          <t>VLMXLPE</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -21462,18 +21462,18 @@
         </is>
       </c>
       <c r="F601" t="n">
-        <v>697805009</v>
+        <v>1254606571</v>
       </c>
       <c r="G601" t="inlineStr">
         <is>
-          <t>VLMXP38</t>
+          <t>VLMXLPE</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="inlineStr">
         <is>
-          <t>VLMXP45</t>
+          <t>VLMXP24</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -21483,7 +21483,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>VLMXP45</t>
+          <t>VLMXP24</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -21497,18 +21497,18 @@
         </is>
       </c>
       <c r="F602" t="n">
-        <v>836757627</v>
+        <v>632954712</v>
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>VLMXP45</t>
+          <t>VLMXP24</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
         <is>
-          <t>VLMXP52</t>
+          <t>VLMXP31</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -21518,7 +21518,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>VLMXP52</t>
+          <t>VLMXP31</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -21532,18 +21532,18 @@
         </is>
       </c>
       <c r="F603" t="n">
-        <v>311820201</v>
+        <v>744972534</v>
       </c>
       <c r="G603" t="inlineStr">
         <is>
-          <t>VLMXP52</t>
+          <t>VLMXP31</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="inlineStr">
         <is>
-          <t>VLMXP59</t>
+          <t>VLMXP38</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -21553,7 +21553,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>VLMXP59</t>
+          <t>VLMXP38</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -21567,18 +21567,18 @@
         </is>
       </c>
       <c r="F604" t="n">
-        <v>2480334</v>
+        <v>709561419</v>
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>VLMXP59</t>
+          <t>VLMXP38</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="inlineStr">
         <is>
-          <t>VLMXTEC</t>
+          <t>VLMXP45</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>VLMXTEC</t>
+          <t>VLMXP45</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -21598,83 +21598,188 @@
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F605" t="n">
-        <v>5482499379</v>
+        <v>848250550</v>
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>VLMXTEC</t>
+          <t>VLMXP45</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="inlineStr">
         <is>
-          <t>VTLS-RF</t>
+          <t>VLMXP52</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>ACTINVER</t>
+          <t>VALMEX</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>VTLS-RF</t>
+          <t>VLMXP52</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>DISCRECIONAL DEUDA</t>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
       <c r="F606" t="n">
-        <v>1493522770</v>
+        <v>314037122</v>
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>VTLS-RF</t>
+          <t>VLMXP52</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="inlineStr">
         <is>
+          <t>VLMXP59</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>VALMEX</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>VLMXP59</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>RV</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>DISCRECIONAL RENTA VARIABLE</t>
+        </is>
+      </c>
+      <c r="F607" t="n">
+        <v>2598974</v>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>VLMXP59</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>VLMXTEC</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>VALMEX</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>VLMXTEC</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>RV</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>ESPECIALIZADA EN ACCIONES INTERNACIONALES</t>
+        </is>
+      </c>
+      <c r="F608" t="n">
+        <v>5694403581</v>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>VLMXTEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>VTLS-RF</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>ACTINVER</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>VTLS-RF</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>DISCRECIONAL DEUDA</t>
+        </is>
+      </c>
+      <c r="F609" t="n">
+        <v>1429814275</v>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>VTLS-RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
           <t>VTLS-RV</t>
         </is>
       </c>
-      <c r="B607" t="inlineStr">
+      <c r="B610" t="inlineStr">
         <is>
           <t>ACTINVER</t>
         </is>
       </c>
-      <c r="C607" t="inlineStr">
+      <c r="C610" t="inlineStr">
         <is>
           <t>VTLS-RV</t>
         </is>
       </c>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>RV</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr">
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>RV</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
         <is>
           <t>DISCRECIONAL RENTA VARIABLE</t>
         </is>
       </c>
-      <c r="F607" t="n">
-        <v>741081320</v>
-      </c>
-      <c r="G607" t="inlineStr">
+      <c r="F610" t="n">
+        <v>795119609</v>
+      </c>
+      <c r="G610" t="inlineStr">
         <is>
           <t>VTLS-RV</t>
         </is>
